--- a/PROYECTO BUZON/Pruebas SINCRONIACION/PPS- Buzon2.0 - Acta_Funcional_Sincronizacion.xlsx
+++ b/PROYECTO BUZON/Pruebas SINCRONIACION/PPS- Buzon2.0 - Acta_Funcional_Sincronizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentacion VUCE\DocumentoVuce\PROYECTO BUZON\Pruebas SINCRONIACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D320F34E-F2D2-4141-AAC5-62D6D3AA6FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97056DEC-ABBC-4BC4-B555-D46511C10A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,6 +414,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Usuario con cuenta VUCE
 Usuario con acceso a generación de trámites en MR2.
@@ -426,6 +427,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BUZON.SUPERVISOR.ADMINISTRADO</t>
     </r>
@@ -452,6 +454,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Usuario con cuenta VUCE
 Usuario con acceso a generación de trámites en MR2.
@@ -464,6 +467,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BUZON.SUPERVISOR.ENTIDAD</t>
     </r>
@@ -567,6 +571,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Resultado Paso 1: Que la información sea cargada a la tabla CONTROL del esquema del proceso de Sincronización en ORACLE, ejecutando la consulta automática.
 Resultado Paso 2: Que se realice el proceso de transferencia y actualización de los datos de los correos y sus metadatos entre las BD Oracle a MongoDB de forma </t>
@@ -577,6 +582,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>fallida</t>
     </r>
@@ -585,6 +591,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. Validar mediante las consultas a las tablas Log e Histórico en Oracle, donde los mensajes tendrán estado E y en MongoDB no se mostrarán los mensajes sincronizados.
 Resultado Paso 3:Que se realice el proceso de transferencia y actualización de los datos de los correos y sus metadatos entre las BD Oracle a MongoDB de forma </t>
@@ -595,6 +602,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>fallida</t>
     </r>
@@ -603,6 +611,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. Validar mediante las consultas a las tablas Log e Histórico en Oracle, donde los mensajes tendrán estado E y en MongoDB no se mostrarán los mensajes sincronizados.
 Resultado Paso 4:Que se realice el proceso de transferencia y actualización de los datos de los correos y sus metadatos entre las BD Oracle a MongoDB de forma </t>
@@ -613,6 +622,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>fallida</t>
     </r>
@@ -621,6 +631,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. Validar mediante las consultas a las tablas Log e Histórico en Oracle, donde los mensajes tendrán estado Z y en MongoDB no se mostrarán los mensajes sincronizados.</t>
     </r>
@@ -646,6 +657,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Resultado Paso 1: Que la información sea cargada a la tabla CONTROL del esquema del proceso de Sincronización en ORACLE, ejecutando la consulta automática.
 Resultado Paso 2: Que se realice el proceso de transferencia y actualización de los datos de los correos y sus metadatos entre las BD Oracle a MongoDB de forma </t>
@@ -656,6 +668,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>fallida</t>
     </r>
@@ -664,6 +677,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. Validar mediante las consultas a las tablas Log e Histórico en Oracle, donde los mensajes tendrán estado E y en MongoDB no se mostrarán los mensajes sincronizados.
 Resultado Paso 3:Que se realice el proceso de transferencia y actualización de los datos de los correos y sus metadatos entre las BD Oracle a MongoDB de forma </t>
@@ -674,6 +688,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>fallida</t>
     </r>
@@ -682,6 +697,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. Validar mediante las consultas a las tablas Log e Histórico en Oracle, donde los mensajes tendrán estado E y en MongoDB no se mostrarán los mensajes sincronizados.
 Resultado Paso 4:Que se realice el proceso de transferencia y actualización de los datos de los correos y sus metadatos entre las BD Oracle a MongoDB de forma </t>
@@ -692,6 +708,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>exitosa</t>
     </r>
@@ -700,6 +717,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. Validar mediante las consultas a las tablas Log e Histórico en Oracle, donde los mensajes tendrán estado S y en MongoDB no se mostrarán los mensajes sincronizados.</t>
     </r>
@@ -1005,6 +1023,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">tipo de componente según la lista
 </t>
@@ -1014,6 +1033,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1024,6 +1044,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejm</t>
     </r>
@@ -1032,6 +1053,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Mercancias restringidas</t>
     </r>
@@ -1085,6 +1107,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">[Escenario]
 </t>
@@ -1094,6 +1117,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1104,6 +1128,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejm</t>
     </r>
@@ -1112,6 +1137,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Escenario 1:  
 Acceso del Usuario </t>
@@ -1243,6 +1269,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>[El nombre debe describir claramente la funcionalidad o el escenario que se está probando</t>
     </r>
@@ -1251,6 +1278,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">] 
 </t>
@@ -1262,6 +1290,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Estructura:</t>
     </r>
@@ -1271,6 +1300,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [Acción/ Funcionalidad]+ [Datos/Condición] + [Resultado esperado] + Ambiente/Plataforma (Opcional)
 </t>
@@ -1282,6 +1312,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Acción/funcionalidad </t>
     </r>
@@ -1291,6 +1322,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(¿Qué se está haciendo/probando?)
 </t>
@@ -1302,6 +1334,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Datos/Condiciones</t>
     </r>
@@ -1311,6 +1344,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (¿Qué condiciones o datos se utilizan?)
 </t>
@@ -1322,6 +1356,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Resultado esperado</t>
     </r>
@@ -1331,6 +1366,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (¿Qué resultado se espera?)
 </t>
@@ -1342,6 +1378,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ambiente/Plataforma</t>
     </r>
@@ -1351,6 +1388,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Opcional: ¿En qué entorno se prueba?)
 </t>
@@ -1360,6 +1398,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1370,6 +1409,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejm</t>
     </r>
@@ -1378,6 +1418,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">:Iniciar sesión con un usuario y contraseña validos
 Iniciar sesión con un usuario y contraseña incorrectas </t>
@@ -1533,6 +1574,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">[Los pasos deben seguir un orden lógico y secuencial ser claros y detallados para evitar malentendidos] 
 </t>
@@ -1544,6 +1586,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Estructura:
 Número del paso:</t>
@@ -1554,6 +1597,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Asignar un número secuencial a cada paso.
 </t>
@@ -1565,6 +1609,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Acción:</t>
     </r>
@@ -1574,6 +1619,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Describir la acción específica que debe realizarse en cada paso.
 </t>
@@ -1584,6 +1630,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1593,6 +1640,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1602,6 +1650,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Ejm: 
 Paso 1: </t>
@@ -1611,6 +1660,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ingresar la URL</t>
     </r>
@@ -1620,6 +1670,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1628,6 +1679,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://example.com/login en el navegador
 </t>
@@ -1638,6 +1690,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Paso 2: </t>
     </r>
@@ -1646,6 +1699,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Introducir un nombre de usuario válido en el campo "Nombre de Usuario".
 </t>
@@ -1656,6 +1710,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Paso 3:</t>
     </r>
@@ -1664,6 +1719,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Introducir una contraseña válida en el campo "Contraseña".
 </t>
@@ -1674,6 +1730,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Paso 4:</t>
     </r>
@@ -1682,6 +1739,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Hacer clic en el botón "Iniciar Sesión".</t>
     </r>
@@ -1693,6 +1751,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">[El resultado esperado en un caso de prueba es la salida o el comportamiento que se realiza después de ejecutar el escenario. Quiere decir un resultado final sobre lo que el sistema muestra, valida o verifica]
 </t>
@@ -1703,6 +1762,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Ejm 1: 
@@ -1713,6 +1773,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">El sistema muestra el dashboard inicial.
 </t>
@@ -1723,6 +1784,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejm 2</t>
     </r>
@@ -1731,6 +1793,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: 
 El sistema valida lo siguiente:
@@ -1826,6 +1889,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Refleja que el caso de prueba aún no ha sido ejecutado y está en espera de ser procesado</t>
     </r>
@@ -1835,6 +1899,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (todos los casos deben iniciar con este estado)</t>
     </r>
@@ -1848,6 +1913,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Indica que el caso de prueba no puede ejecutarse debido a un impedimento, como la falta de implementación, un entorno no disponible, o datos faltantes. </t>
     </r>
@@ -1857,6 +1923,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(colocar el motivo del bloqueo)</t>
     </r>
@@ -1936,7 +2003,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2043,21 +2110,10 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2065,12 +2121,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2853,19 +2911,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2914,13 +2972,13 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -34505,11 +34563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48EE09-E661-402D-BA1B-A100D489DD1B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A3:AY85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AV54" sqref="AV54"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55:Z55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36360,7 +36417,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:51" ht="120.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:51" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="109" t="s">
         <v>63</v>
       </c>
@@ -36448,7 +36505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:51" ht="155.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:51" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="109" t="s">
         <v>77</v>
       </c>
@@ -36712,7 +36769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="2:51" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:51" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="109" t="s">
         <v>100</v>
       </c>
@@ -36800,7 +36857,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="2:51" ht="158.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:51" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="109" t="s">
         <v>105</v>
       </c>
@@ -36888,7 +36945,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="2:51" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:51" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="109" t="s">
         <v>113</v>
       </c>
@@ -36976,7 +37033,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="2:51" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:51" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="109" t="s">
         <v>116</v>
       </c>
@@ -37240,7 +37297,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="2:51" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:51" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="109" t="s">
         <v>135</v>
       </c>
@@ -37416,7 +37473,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="2:51" ht="107.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="109" t="s">
         <v>146</v>
       </c>
@@ -38507,15 +38564,7 @@
     <filterColumn colId="15" showButton="0"/>
     <filterColumn colId="16" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
-    <filterColumn colId="20" showButton="0">
-      <filters>
-        <filter val="Validación de la sincronización semiautomática de archivos adjuntos de Buzón 1.0 a Buzón 2.0"/>
-        <filter val="Validación de la sincronización semiautomática de mensajes de Buzón 1.0 a Buzón 2.0"/>
-        <filter val="Validar el proceso de sincronización automáticos de mensajes de Buzón 1.0 a Buzón 2.0 con resultado exitoso."/>
-        <filter val="Validar el proceso de sincronización automáticos de mensajes de Buzón 1.0 a Buzón 2.0 con resultado fallido."/>
-        <filter val="Validar el proceso de sincronización automáticos de mensajes de Buzón 1.0 a Buzón 2.0 con resultado inicial fallido, culminando en un intento exitoso."/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="20" showButton="0"/>
     <filterColumn colId="21" showButton="0"/>
     <filterColumn colId="22" showButton="0"/>
     <filterColumn colId="23" showButton="0"/>
